--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -1174,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2583,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3143,7 +3143,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3177,7 +3177,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3230,17 +3230,16 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A21 C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63">
@@ -3248,64 +3247,64 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="11">
         <v>15</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="13">
         <v>44687</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>44693</v>
       </c>
-      <c r="F2" s="15">
-        <f>LOOKUP(G2,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G2" s="15">
+        <f>LOOKUP(H2,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>25</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>601</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
@@ -3313,32 +3312,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="13">
         <v>44687</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>44693</v>
       </c>
-      <c r="F3" s="15">
-        <f>LOOKUP(G3,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="G3" s="15">
+        <f>LOOKUP(H3,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <v>20</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>602</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
@@ -3346,32 +3345,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>10</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <v>44689</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>44695</v>
       </c>
-      <c r="F4" s="15">
-        <f>LOOKUP(G4,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G4" s="15">
+        <f>LOOKUP(H4,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>603</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
@@ -3379,32 +3378,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
         <v>44689</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>44695</v>
       </c>
-      <c r="F5" s="15">
-        <f>LOOKUP(G5,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G5" s="15">
+        <f>LOOKUP(H5,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>24</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>604</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
@@ -3412,32 +3411,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
         <v>44691</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>44697</v>
       </c>
-      <c r="F6" s="15">
-        <f>LOOKUP(G6,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G6" s="15">
+        <f>LOOKUP(H6,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>605</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
@@ -3445,32 +3444,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
         <v>44692</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>44698</v>
       </c>
-      <c r="F7" s="15">
-        <f>LOOKUP(G7,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G7" s="15">
+        <f>LOOKUP(H7,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>606</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
@@ -3478,32 +3477,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <v>44693</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>44699</v>
       </c>
-      <c r="F8" s="15">
-        <f>LOOKUP(G8,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G8" s="15">
+        <f>LOOKUP(H8,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>36</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <v>607</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
@@ -3511,32 +3510,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
         <v>44694</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <v>44700</v>
       </c>
-      <c r="F9" s="15">
-        <f>LOOKUP(G9,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G9" s="15">
+        <f>LOOKUP(H9,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>608</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
@@ -3544,32 +3543,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
         <v>44696</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <v>44702</v>
       </c>
-      <c r="F10" s="15">
-        <f>LOOKUP(G10,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G10" s="15">
+        <f>LOOKUP(H10,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>34</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <v>609</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
@@ -3577,65 +3576,65 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>44696</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <v>44702</v>
       </c>
-      <c r="F11" s="15">
-        <f>LOOKUP(G11,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G11" s="15">
+        <f>LOOKUP(H11,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>36</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>610</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <v>44687</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>44693</v>
       </c>
-      <c r="F12" s="15">
-        <f>LOOKUP(G12,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G12" s="15">
+        <f>LOOKUP(H12,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>25</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>601</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
@@ -3643,32 +3642,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
         <v>15</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>44687</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>44693</v>
       </c>
-      <c r="F13" s="15">
-        <f>LOOKUP(G13,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="G13" s="15">
+        <f>LOOKUP(H13,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>602</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
@@ -3676,32 +3675,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="13">
         <v>44689</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="13">
         <v>44695</v>
       </c>
-      <c r="F14" s="15">
-        <f>LOOKUP(G14,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G14" s="15">
+        <f>LOOKUP(H14,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>603</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
@@ -3709,32 +3708,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <v>44689</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <v>44695</v>
       </c>
-      <c r="F15" s="15">
-        <f>LOOKUP(G15,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G15" s="15">
+        <f>LOOKUP(H15,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>24</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="9">
         <v>604</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
@@ -3742,32 +3741,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="9">
         <v>10</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <v>44691</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="13">
         <v>44697</v>
       </c>
-      <c r="F16" s="15">
-        <f>LOOKUP(G16,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G16" s="15">
+        <f>LOOKUP(H16,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>25</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>605</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
@@ -3775,32 +3774,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
         <v>44692</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>44698</v>
       </c>
-      <c r="F17" s="15">
-        <f>LOOKUP(G17,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G17" s="15">
+        <f>LOOKUP(H17,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>28</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <v>606</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
@@ -3808,32 +3807,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <v>44693</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <v>44699</v>
       </c>
-      <c r="F18" s="15">
-        <f>LOOKUP(G18,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G18" s="15">
+        <f>LOOKUP(H18,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>8</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>36</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>607</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
@@ -3841,32 +3840,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
         <v>44694</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="13">
         <v>44700</v>
       </c>
-      <c r="F19" s="15">
-        <f>LOOKUP(G19,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G19" s="15">
+        <f>LOOKUP(H19,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>6</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>32</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <v>608</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
@@ -3874,32 +3873,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
         <v>44696</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>44702</v>
       </c>
-      <c r="F20" s="15">
-        <f>LOOKUP(G20,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G20" s="15">
+        <f>LOOKUP(H20,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>34</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>609</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
@@ -3907,32 +3906,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
         <v>44696</v>
       </c>
-      <c r="E21" s="13">
+      <c r="F21" s="13">
         <v>44702</v>
       </c>
-      <c r="F21" s="15">
-        <f>LOOKUP(G21,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
+      <c r="G21" s="15">
+        <f>LOOKUP(H21,pick_point_id!$B$2:$B$9,pick_point_id!$A$2:$A$9)</f>
         <v>8</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>36</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>610</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4033,31 +4032,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="52" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5">
+    <row r="1" spans="1:18" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
@@ -4071,46 +4073,46 @@
         <v>86</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="31.5">
+    </row>
+    <row r="2" spans="1:18" ht="31.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4125,49 +4127,49 @@
         <v>98</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123</v>
+      </c>
+      <c r="H2" s="11">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11">
+        <f>LOOKUP(P2,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="11">
+        <f>LOOKUP(L2,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="11">
+        <f>LOOKUP(N2,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="11">
+        <v>3</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>6</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="11">
-        <v>123</v>
-      </c>
-      <c r="G2" s="11">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11">
-        <f>LOOKUP(I2,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="11">
-        <f>LOOKUP(K2,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="11">
-        <f>LOOKUP(M2,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="11">
-        <v>3</v>
-      </c>
-      <c r="O2" s="11">
-        <v>6</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.5">
+    </row>
+    <row r="3" spans="1:18" ht="31.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4182,49 +4184,49 @@
         <v>106</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="11">
+        <v>149</v>
+      </c>
+      <c r="H3" s="11">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11">
+        <f>LOOKUP(P3,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="11">
+        <f>LOOKUP(L3,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="11">
+        <f>LOOKUP(N3,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>7</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="11">
-        <v>149</v>
-      </c>
-      <c r="G3" s="11">
-        <v>15</v>
-      </c>
-      <c r="H3" s="11">
-        <f>LOOKUP(I3,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>12</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="11">
-        <f>LOOKUP(K3,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="11">
-        <f>LOOKUP(M3,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
-        <v>7</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="31.5">
+    </row>
+    <row r="4" spans="1:18" ht="31.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4239,49 +4241,49 @@
         <v>113</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="11">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11">
+        <f>LOOKUP(P4,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="11">
+        <f>LOOKUP(L4,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="11">
+        <f>LOOKUP(N4,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>15</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="11">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="11">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11">
-        <f>LOOKUP(I4,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="11">
-        <f>LOOKUP(K4,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="11">
-        <f>LOOKUP(M4,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="11">
-        <v>15</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.5">
+    </row>
+    <row r="5" spans="1:18" ht="31.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4296,49 +4298,49 @@
         <v>98</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11">
+        <v>86</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <f>LOOKUP(P5,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="11">
+        <f>LOOKUP(L5,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="11">
+        <f>LOOKUP(N5,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="11">
+        <v>4</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>17</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="11">
-        <v>86</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
-        <f>LOOKUP(I5,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="11">
-        <f>LOOKUP(K5,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="11">
-        <f>LOOKUP(M5,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="11">
-        <v>4</v>
-      </c>
-      <c r="O5" s="11">
-        <v>17</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.5">
+    </row>
+    <row r="6" spans="1:18" ht="31.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4353,49 +4355,49 @@
         <v>98</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="11">
+        <v>166</v>
+      </c>
+      <c r="H6" s="11">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11">
+        <f>LOOKUP(P6,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="11">
+        <f>LOOKUP(L6,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="11">
+        <f>LOOKUP(N6,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="11">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>18</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="11">
-        <v>166</v>
-      </c>
-      <c r="G6" s="11">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11">
-        <f>LOOKUP(I6,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="11">
-        <f>LOOKUP(K6,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="11">
-        <f>LOOKUP(M6,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6" s="11">
-        <v>5</v>
-      </c>
-      <c r="O6" s="11">
-        <v>18</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.5">
+    </row>
+    <row r="7" spans="1:18" ht="31.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4410,49 +4412,49 @@
         <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1700</v>
+      </c>
+      <c r="H7" s="11">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11">
+        <f>LOOKUP(P7,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="11">
+        <f>LOOKUP(L7,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="11">
+        <f>LOOKUP(N7,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>5</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="11">
-        <v>1700</v>
-      </c>
-      <c r="G7" s="11">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11">
-        <f>LOOKUP(I7,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="11">
-        <f>LOOKUP(K7,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="11">
-        <f>LOOKUP(M7,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11">
-        <v>5</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="31.5">
+    </row>
+    <row r="8" spans="1:18" ht="31.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4467,49 +4469,49 @@
         <v>130</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="11">
+        <v>300</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11">
+        <f>LOOKUP(P8,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="11">
+        <f>LOOKUP(L8,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="11">
+        <f>LOOKUP(N8,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>19</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="11">
-        <v>300</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5</v>
-      </c>
-      <c r="H8" s="11">
-        <f>LOOKUP(I8,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="11">
-        <f>LOOKUP(K8,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="11">
-        <f>LOOKUP(M8,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" s="11">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>19</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5">
+    </row>
+    <row r="9" spans="1:18" ht="31.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4524,49 +4526,49 @@
         <v>135</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="11">
+        <v>199</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11">
+        <f>LOOKUP(P9,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="11">
+        <f>LOOKUP(L9,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="11">
+        <f>LOOKUP(N9,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="11">
+        <v>5</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>7</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="11">
-        <v>199</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11">
-        <f>LOOKUP(I9,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>5</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="11">
-        <f>LOOKUP(K9,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="11">
-        <f>LOOKUP(M9,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="11">
-        <v>5</v>
-      </c>
-      <c r="O9" s="11">
-        <v>7</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="31.5">
+    </row>
+    <row r="10" spans="1:18" ht="31.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4581,49 +4583,49 @@
         <v>140</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="11">
+        <v>234</v>
+      </c>
+      <c r="H10" s="11">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11">
+        <f>LOOKUP(P10,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="11">
+        <f>LOOKUP(L10,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="11">
+        <f>LOOKUP(N10,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="11">
+        <v>3</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>17</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="11">
-        <v>234</v>
-      </c>
-      <c r="G10" s="11">
-        <v>10</v>
-      </c>
-      <c r="H10" s="11">
-        <f>LOOKUP(I10,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>7</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="11">
-        <f>LOOKUP(K10,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="11">
-        <f>LOOKUP(M10,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="11">
-        <v>3</v>
-      </c>
-      <c r="O10" s="11">
-        <v>17</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="31.5">
+    </row>
+    <row r="11" spans="1:18" ht="31.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4638,49 +4640,49 @@
         <v>98</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="11">
+        <v>146</v>
+      </c>
+      <c r="G11" s="11">
         <v>170</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>5</v>
       </c>
-      <c r="H11" s="11">
-        <f>LOOKUP(I11,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+      <c r="I11" s="11">
+        <f>LOOKUP(P11,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="11">
+        <f>LOOKUP(L11,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="11">
-        <f>LOOKUP(K11,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+      <c r="M11" s="11">
+        <f>LOOKUP(N11,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="L11" s="11">
-        <f>LOOKUP(M11,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N11" s="11">
-        <v>5</v>
       </c>
       <c r="O11" s="11">
         <v>5</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="31.5">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>5</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="31.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4695,49 +4697,49 @@
         <v>135</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="11">
+        <v>149</v>
+      </c>
+      <c r="G12" s="11">
         <v>600</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="H12" s="11">
-        <f>LOOKUP(I12,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+      <c r="I12" s="11">
+        <f>LOOKUP(P12,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="11">
+        <f>LOOKUP(L12,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="11">
-        <f>LOOKUP(K12,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="M12" s="11">
+        <f>LOOKUP(N12,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="L12" s="11">
-        <f>LOOKUP(M12,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="11">
-        <v>5</v>
       </c>
       <c r="O12" s="11">
         <v>5</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="31.5">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>5</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="31.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4752,49 +4754,49 @@
         <v>135</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="11">
+        <v>300</v>
+      </c>
+      <c r="H13" s="11">
+        <v>15</v>
+      </c>
+      <c r="I13" s="11">
+        <f>LOOKUP(P13,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="11">
+        <f>LOOKUP(L13,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="11">
+        <f>LOOKUP(N13,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>15</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="11">
-        <v>300</v>
-      </c>
-      <c r="G13" s="11">
-        <v>15</v>
-      </c>
-      <c r="H13" s="11">
-        <f>LOOKUP(I13,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="11">
-        <f>LOOKUP(K13,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="11">
-        <f>LOOKUP(M13,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="11">
-        <v>2</v>
-      </c>
-      <c r="O13" s="11">
-        <v>15</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="31.5">
+    </row>
+    <row r="14" spans="1:18" ht="31.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4809,49 +4811,49 @@
         <v>113</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="11">
+        <v>4100</v>
+      </c>
+      <c r="H14" s="11">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <f>LOOKUP(P14,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="11">
+        <f>LOOKUP(L14,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="11">
+        <f>LOOKUP(N14,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>9</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="11">
-        <v>4100</v>
-      </c>
-      <c r="G14" s="11">
-        <v>30</v>
-      </c>
-      <c r="H14" s="11">
-        <f>LOOKUP(I14,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="11">
-        <f>LOOKUP(K14,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="11">
-        <f>LOOKUP(M14,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="11">
-        <v>4</v>
-      </c>
-      <c r="O14" s="11">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="31.5">
+    </row>
+    <row r="15" spans="1:18" ht="31.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4866,49 +4868,49 @@
         <v>140</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="11">
+        <v>385</v>
+      </c>
+      <c r="H15" s="11">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11">
+        <f>LOOKUP(P15,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="11">
+        <f>LOOKUP(L15,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="11">
+        <f>LOOKUP(N15,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>17</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="11">
-        <v>385</v>
-      </c>
-      <c r="G15" s="11">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11">
-        <f>LOOKUP(I15,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="11">
-        <f>LOOKUP(K15,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="11">
-        <f>LOOKUP(M15,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="11">
-        <v>2</v>
-      </c>
-      <c r="O15" s="11">
-        <v>17</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="31.5">
+    </row>
+    <row r="16" spans="1:18" ht="31.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4923,49 +4925,49 @@
         <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="11">
+        <v>280</v>
+      </c>
+      <c r="H16" s="11">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11">
+        <f>LOOKUP(P16,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="11">
+        <f>LOOKUP(L16,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="11">
+        <f>LOOKUP(N16,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>8</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="11">
-        <v>280</v>
-      </c>
-      <c r="G16" s="11">
-        <v>15</v>
-      </c>
-      <c r="H16" s="11">
-        <f>LOOKUP(I16,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="11">
-        <f>LOOKUP(K16,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="11">
-        <f>LOOKUP(M16,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="11">
-        <v>3</v>
-      </c>
-      <c r="O16" s="11">
-        <v>8</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="31.5">
+    </row>
+    <row r="17" spans="1:18" ht="31.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4980,49 +4982,49 @@
         <v>113</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="11">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11">
+        <f>LOOKUP(P17,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="11">
+        <f>LOOKUP(L17,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="11">
+        <f>LOOKUP(N17,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="11">
+        <v>4</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>9</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="11">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="11">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11">
-        <f>LOOKUP(I17,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="11">
-        <f>LOOKUP(K17,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="11">
-        <f>LOOKUP(M17,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N17" s="11">
-        <v>4</v>
-      </c>
-      <c r="O17" s="11">
-        <v>9</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="31.5">
+    </row>
+    <row r="18" spans="1:18" ht="31.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5037,49 +5039,49 @@
         <v>135</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="11">
+        <v>510</v>
+      </c>
+      <c r="H18" s="11">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11">
+        <f>LOOKUP(P18,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="11">
+        <f>LOOKUP(L18,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="11">
+        <f>LOOKUP(N18,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="11">
+        <v>2</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>17</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="11">
-        <v>510</v>
-      </c>
-      <c r="G18" s="11">
-        <v>5</v>
-      </c>
-      <c r="H18" s="11">
-        <f>LOOKUP(I18,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="11">
-        <f>LOOKUP(K18,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="11">
-        <f>LOOKUP(M18,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" s="11">
-        <v>2</v>
-      </c>
-      <c r="O18" s="11">
-        <v>17</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="31.5">
+    </row>
+    <row r="19" spans="1:18" ht="31.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5094,49 +5096,49 @@
         <v>135</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="11">
+        <v>510</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5</v>
+      </c>
+      <c r="I19" s="11">
+        <f>LOOKUP(P19,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="11">
+        <f>LOOKUP(L19,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="11">
+        <f>LOOKUP(N19,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="11">
+        <v>2</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>17</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="11">
-        <v>510</v>
-      </c>
-      <c r="G19" s="11">
-        <v>5</v>
-      </c>
-      <c r="H19" s="11">
-        <f>LOOKUP(I19,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="11">
-        <f>LOOKUP(K19,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="11">
-        <f>LOOKUP(M19,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N19" s="11">
-        <v>2</v>
-      </c>
-      <c r="O19" s="11">
-        <v>17</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="31.5">
+    </row>
+    <row r="20" spans="1:18" ht="31.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5151,49 +5153,49 @@
         <v>113</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2190</v>
+      </c>
+      <c r="H20" s="11">
+        <v>30</v>
+      </c>
+      <c r="I20" s="11">
+        <f>LOOKUP(P20,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="11">
+        <f>LOOKUP(L20,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="11">
+        <f>LOOKUP(N20,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="11">
+        <v>4</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>7</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="11">
-        <v>2190</v>
-      </c>
-      <c r="G20" s="11">
-        <v>30</v>
-      </c>
-      <c r="H20" s="11">
-        <f>LOOKUP(I20,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="11">
-        <f>LOOKUP(K20,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="11">
-        <f>LOOKUP(M20,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" s="11">
-        <v>4</v>
-      </c>
-      <c r="O20" s="11">
-        <v>7</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="31.5">
+    </row>
+    <row r="21" spans="1:18" ht="31.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5208,49 +5210,49 @@
         <v>98</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="11">
+        <v>177</v>
+      </c>
+      <c r="H21" s="11">
+        <v>15</v>
+      </c>
+      <c r="I21" s="11">
+        <f>LOOKUP(P21,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="11">
+        <f>LOOKUP(L21,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="11">
+        <f>LOOKUP(N21,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="11">
+        <v>3</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>15</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="11">
-        <v>177</v>
-      </c>
-      <c r="G21" s="11">
-        <v>15</v>
-      </c>
-      <c r="H21" s="11">
-        <f>LOOKUP(I21,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J21" s="11">
-        <f>LOOKUP(K21,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="11">
-        <f>LOOKUP(M21,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="11">
-        <v>3</v>
-      </c>
-      <c r="O21" s="11">
-        <v>15</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="31.5">
+    </row>
+    <row r="22" spans="1:18" ht="31.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5265,49 +5267,49 @@
         <v>130</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="11">
+        <v>100</v>
+      </c>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11">
+        <f>LOOKUP(P22,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="11">
+        <f>LOOKUP(L22,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="11">
+        <f>LOOKUP(N22,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="11">
+        <v>4</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>21</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="11">
-        <v>100</v>
-      </c>
-      <c r="G22" s="11">
-        <v>5</v>
-      </c>
-      <c r="H22" s="11">
-        <f>LOOKUP(I22,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" s="11">
-        <f>LOOKUP(K22,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="11">
-        <f>LOOKUP(M22,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="11">
-        <v>4</v>
-      </c>
-      <c r="O22" s="11">
-        <v>21</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.5">
+    </row>
+    <row r="23" spans="1:18" ht="31.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5322,49 +5324,49 @@
         <v>135</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="11">
+        <v>640</v>
+      </c>
+      <c r="H23" s="11">
+        <v>5</v>
+      </c>
+      <c r="I23" s="11">
+        <f>LOOKUP(P23,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="11">
+        <f>LOOKUP(L23,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="11">
+        <f>LOOKUP(N23,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="11">
+        <v>5</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>4</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="11">
-        <v>640</v>
-      </c>
-      <c r="G23" s="11">
-        <v>5</v>
-      </c>
-      <c r="H23" s="11">
-        <f>LOOKUP(I23,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" s="11">
-        <f>LOOKUP(K23,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="11">
-        <f>LOOKUP(M23,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N23" s="11">
-        <v>5</v>
-      </c>
-      <c r="O23" s="11">
-        <v>4</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="31.5">
+    </row>
+    <row r="24" spans="1:18" ht="31.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5379,49 +5381,49 @@
         <v>174</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="11">
+        <v>800</v>
+      </c>
+      <c r="H24" s="11">
+        <v>25</v>
+      </c>
+      <c r="I24" s="11">
+        <f>LOOKUP(P24,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="11">
+        <f>LOOKUP(L24,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" s="11">
+        <f>LOOKUP(N24,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="11">
+        <v>2</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>17</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="11">
-        <v>800</v>
-      </c>
-      <c r="G24" s="11">
-        <v>25</v>
-      </c>
-      <c r="H24" s="11">
-        <f>LOOKUP(I24,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>13</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="11">
-        <f>LOOKUP(K24,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="11">
-        <f>LOOKUP(M24,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N24" s="11">
-        <v>2</v>
-      </c>
-      <c r="O24" s="11">
-        <v>17</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31.5">
+    </row>
+    <row r="25" spans="1:18" ht="31.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5436,49 +5438,49 @@
         <v>178</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3500</v>
+      </c>
+      <c r="H25" s="11">
+        <v>30</v>
+      </c>
+      <c r="I25" s="11">
+        <f>LOOKUP(P25,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="11">
+        <f>LOOKUP(L25,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="11">
+        <f>LOOKUP(N25,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="11">
+        <v>5</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>3</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G25" s="11">
-        <v>30</v>
-      </c>
-      <c r="H25" s="11">
-        <f>LOOKUP(I25,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="11">
-        <f>LOOKUP(K25,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="11">
-        <f>LOOKUP(M25,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="11">
-        <v>5</v>
-      </c>
-      <c r="O25" s="11">
-        <v>3</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75">
+    </row>
+    <row r="26" spans="1:18" ht="15.75">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5493,49 +5495,49 @@
         <v>140</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="11">
+        <v>400</v>
+      </c>
+      <c r="H26" s="11">
+        <v>15</v>
+      </c>
+      <c r="I26" s="11">
+        <f>LOOKUP(P26,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="11">
+        <f>LOOKUP(L26,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="11">
+        <f>LOOKUP(N26,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="11">
+        <v>4</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>5</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="11">
-        <v>400</v>
-      </c>
-      <c r="G26" s="11">
-        <v>15</v>
-      </c>
-      <c r="H26" s="11">
-        <f>LOOKUP(I26,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="11">
-        <f>LOOKUP(K26,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="11">
-        <f>LOOKUP(M26,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" s="11">
-        <v>4</v>
-      </c>
-      <c r="O26" s="11">
-        <v>5</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="31.5">
+    </row>
+    <row r="27" spans="1:18" ht="31.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5550,49 +5552,49 @@
         <v>140</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="11">
+        <v>292</v>
+      </c>
+      <c r="H27" s="11">
+        <v>25</v>
+      </c>
+      <c r="I27" s="11">
+        <f>LOOKUP(P27,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="11">
+        <f>LOOKUP(L27,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="11">
+        <f>LOOKUP(N27,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="11">
+        <v>3</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>13</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="11">
-        <v>292</v>
-      </c>
-      <c r="G27" s="11">
-        <v>25</v>
-      </c>
-      <c r="H27" s="11">
-        <f>LOOKUP(I27,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="11">
-        <f>LOOKUP(K27,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="11">
-        <f>LOOKUP(M27,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N27" s="11">
-        <v>3</v>
-      </c>
-      <c r="O27" s="11">
-        <v>13</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="31.5">
+    </row>
+    <row r="28" spans="1:18" ht="31.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5607,49 +5609,49 @@
         <v>130</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="11">
+        <v>600</v>
+      </c>
+      <c r="H28" s="11">
+        <v>15</v>
+      </c>
+      <c r="I28" s="11">
+        <f>LOOKUP(P28,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="11">
+        <f>LOOKUP(L28,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="11">
+        <f>LOOKUP(N28,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="11">
+        <v>2</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>16</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="11">
-        <v>600</v>
-      </c>
-      <c r="G28" s="11">
-        <v>15</v>
-      </c>
-      <c r="H28" s="11">
-        <f>LOOKUP(I28,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>11</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="11">
-        <f>LOOKUP(K28,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="11">
-        <f>LOOKUP(M28,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N28" s="11">
-        <v>2</v>
-      </c>
-      <c r="O28" s="11">
-        <v>16</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="31.5">
+    </row>
+    <row r="29" spans="1:18" ht="31.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5664,49 +5666,49 @@
         <v>98</v>
       </c>
       <c r="E29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="11">
+        <v>140</v>
+      </c>
+      <c r="H29" s="11">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11">
+        <f>LOOKUP(P29,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="11">
+        <f>LOOKUP(L29,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="11">
+        <f>LOOKUP(N29,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="11">
+        <v>3</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>19</v>
+      </c>
+      <c r="R29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="11">
-        <v>140</v>
-      </c>
-      <c r="G29" s="11">
-        <v>20</v>
-      </c>
-      <c r="H29" s="11">
-        <f>LOOKUP(I29,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="11">
-        <f>LOOKUP(K29,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="11">
-        <f>LOOKUP(M29,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N29" s="11">
-        <v>3</v>
-      </c>
-      <c r="O29" s="11">
-        <v>19</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="31.5">
+    </row>
+    <row r="30" spans="1:18" ht="31.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5721,49 +5723,49 @@
         <v>98</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="11">
+        <v>50</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5</v>
+      </c>
+      <c r="I30" s="11">
+        <f>LOOKUP(P30,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="11">
+        <f>LOOKUP(L30,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="11">
+        <f>LOOKUP(N30,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="11">
+        <v>4</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>6</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="11">
-        <v>50</v>
-      </c>
-      <c r="G30" s="11">
-        <v>5</v>
-      </c>
-      <c r="H30" s="11">
-        <f>LOOKUP(I30,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="11">
-        <f>LOOKUP(K30,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="11">
-        <f>LOOKUP(M30,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="11">
-        <v>4</v>
-      </c>
-      <c r="O30" s="11">
-        <v>6</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="31.5">
+    </row>
+    <row r="31" spans="1:18" ht="31.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5778,50 +5780,51 @@
         <v>113</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="11">
+        <v>600</v>
+      </c>
+      <c r="H31" s="11">
+        <v>15</v>
+      </c>
+      <c r="I31" s="11">
+        <f>LOOKUP(P31,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="11">
+        <f>LOOKUP(L31,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="11">
+        <f>LOOKUP(N31,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="11">
+        <v>5</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>15</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F31" s="11">
-        <v>600</v>
-      </c>
-      <c r="G31" s="11">
-        <v>15</v>
-      </c>
-      <c r="H31" s="11">
-        <f>LOOKUP(I31,manufactyre_id!$B$2:$B$14,manufactyre_id!$A$2:$A$14)</f>
-        <v>3</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="11">
-        <f>LOOKUP(K31,deliveri_id!$B$2:$B$3,deliveri_id!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L31" s="11">
-        <f>LOOKUP(M31,category_tovarov_id!$B$2:$B$4,category_tovarov_id!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="11">
-        <v>5</v>
-      </c>
-      <c r="O31" s="11">
-        <v>15</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5830,7 +5833,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5963,7 +5966,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6008,7 +6011,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6061,7 +6064,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
